--- a/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
@@ -1,39 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52C3B44-EAB3-4FA1-909A-F08143121AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="6945" yWindow="4260" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#猫咪阴谋配置" r:id="rId3" sheetId="1"/>
+    <sheet name="#猫咪阴谋配置" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>PBJSON</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>ConspiracyId
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ConspiracyId
 int64</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>description
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>description
 string</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t>condition
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>condition
 int64</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -41,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>阴谋编号</t>
   </si>
@@ -50,31 +84,105 @@
   </si>
   <si>
     <t>达成条件</t>
+  </si>
+  <si>
+    <t>阻止“武器制备”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妨碍“兵力运输”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏“安抚拉拢”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止“宗教支持”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打听“圣杯的传言”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探求“圣杯的痕迹”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻觅“圣杯的线索”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谋酝酿中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找寻所有失落的圣器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠覆人类政权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到猫咪圣杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,35 +190,369 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.0" customWidth="true"/>
-    <col min="2" max="2" style="1" width="9.0" customWidth="true"/>
-    <col min="3" max="3" style="1" width="9.0" customWidth="true"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -121,9 +563,152 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>80000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>80001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>450001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>80002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>450002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>80003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>450003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>80010</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>450010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>80011</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>450011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>80012</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>450012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>80013</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>450013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>80020</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>80030</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>80040</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>80050</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>80051</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52C3B44-EAB3-4FA1-909A-F08143121AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CC1A3-009E-4DCA-9A86-F80F540281EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="4260" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="5490" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪阴谋配置" sheetId="1" r:id="rId1"/>
@@ -70,12 +70,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>GroupId
+int64</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>阴谋编号</t>
   </si>
@@ -128,6 +143,9 @@
   <si>
     <t>找到猫咪圣杯</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谋组编号</t>
   </si>
 </sst>
 </file>
@@ -156,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +247,10 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -539,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,9 +578,10 @@
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +591,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>80000</v>
       </c>
@@ -573,8 +605,11 @@
       <c r="C2" s="4">
         <v>450000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>80001</v>
       </c>
@@ -584,8 +619,11 @@
       <c r="C3" s="4">
         <v>450001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>80002</v>
       </c>
@@ -595,8 +633,11 @@
       <c r="C4" s="4">
         <v>450002</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>80003</v>
       </c>
@@ -606,8 +647,11 @@
       <c r="C5" s="4">
         <v>450003</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>80010</v>
       </c>
@@ -617,8 +661,11 @@
       <c r="C6" s="4">
         <v>450010</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>80011</v>
       </c>
@@ -628,8 +675,11 @@
       <c r="C7" s="4">
         <v>450011</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>80012</v>
       </c>
@@ -639,8 +689,11 @@
       <c r="C8" s="4">
         <v>450012</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>80013</v>
       </c>
@@ -650,8 +703,11 @@
       <c r="C9" s="4">
         <v>450013</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>80020</v>
       </c>
@@ -661,8 +717,11 @@
       <c r="C10" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>80030</v>
       </c>
@@ -672,8 +731,11 @@
       <c r="C11" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>80040</v>
       </c>
@@ -683,27 +745,92 @@
       <c r="C12" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>80050</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>80051</v>
+        <v>80060</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4">
         <v>-1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>80070</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>80080</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>80090</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>80091</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CC1A3-009E-4DCA-9A86-F80F540281EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE93560-E585-4446-98FD-CC76E8E0CDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="5490" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="5595" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪阴谋配置" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -570,7 +580,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,7 +616,7 @@
         <v>450000</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,7 +630,7 @@
         <v>450001</v>
       </c>
       <c r="D3" s="6">
-        <v>0</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,7 +644,7 @@
         <v>450002</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,7 +658,7 @@
         <v>450003</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -662,7 +672,7 @@
         <v>450010</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>71010</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -676,7 +686,7 @@
         <v>450011</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>71010</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,7 +700,7 @@
         <v>450012</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>71010</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -704,7 +714,7 @@
         <v>450013</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>71010</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -718,7 +728,7 @@
         <v>-1</v>
       </c>
       <c r="D10" s="6">
-        <v>2</v>
+        <v>71020</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -732,7 +742,7 @@
         <v>-1</v>
       </c>
       <c r="D11" s="6">
-        <v>3</v>
+        <v>71030</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -746,7 +756,7 @@
         <v>-1</v>
       </c>
       <c r="D12" s="6">
-        <v>4</v>
+        <v>71040</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -760,7 +770,7 @@
         <v>-1</v>
       </c>
       <c r="D13" s="6">
-        <v>5</v>
+        <v>71050</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -774,7 +784,7 @@
         <v>-1</v>
       </c>
       <c r="D14" s="6">
-        <v>6</v>
+        <v>71060</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -788,7 +798,7 @@
         <v>-1</v>
       </c>
       <c r="D15" s="6">
-        <v>7</v>
+        <v>71070</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -802,7 +812,7 @@
         <v>-1</v>
       </c>
       <c r="D16" s="6">
-        <v>8</v>
+        <v>71080</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -816,7 +826,7 @@
         <v>-1</v>
       </c>
       <c r="D17" s="6">
-        <v>9</v>
+        <v>71090</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -830,7 +840,7 @@
         <v>-1</v>
       </c>
       <c r="D18" s="6">
-        <v>9</v>
+        <v>71090</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE93560-E585-4446-98FD-CC76E8E0CDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB54DE3-A6E0-46BE-B011-9B4E2EDC6006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="5595" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪阴谋配置" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB54DE3-A6E0-46BE-B011-9B4E2EDC6006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85435844-AA7C-4F3E-816D-4D0A8C117FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13575" yWindow="5445" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪阴谋配置" sheetId="1" r:id="rId1"/>
@@ -111,34 +111,6 @@
     <t>达成条件</t>
   </si>
   <si>
-    <t>阻止“武器制备”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>妨碍“兵力运输”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破坏“安抚拉拢”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止“宗教支持”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打听“圣杯的传言”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>探求“圣杯的痕迹”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻觅“圣杯的线索”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阴谋酝酿中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,6 +128,34 @@
   </si>
   <si>
     <t>阴谋组编号</t>
+  </si>
+  <si>
+    <t>在亲王处，阻止“武器制备”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在亲王处，妨碍“兵力运输”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在亲王处，破坏“安抚拉拢”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在亲王处，停止“宗教支持”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行“猫咪仪式”，探求“圣杯的痕迹”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开“猫咪巡游”，打听“圣杯的传言”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举办“猫咪集会”，寻觅“圣杯的线索”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,13 +580,13 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
   </cols>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>80000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>450000</v>
@@ -624,7 +624,7 @@
         <v>80001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>450001</v>
@@ -638,7 +638,7 @@
         <v>80002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>450002</v>
@@ -652,7 +652,7 @@
         <v>80003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>450003</v>
@@ -666,7 +666,7 @@
         <v>80010</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>450010</v>
@@ -680,7 +680,7 @@
         <v>80011</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>450011</v>
@@ -694,7 +694,7 @@
         <v>80012</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4">
         <v>450012</v>
@@ -708,7 +708,7 @@
         <v>80013</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4">
         <v>450013</v>
@@ -722,7 +722,7 @@
         <v>80020</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
         <v>-1</v>
@@ -736,7 +736,7 @@
         <v>80030</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
         <v>-1</v>
@@ -750,7 +750,7 @@
         <v>80040</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
         <v>-1</v>
@@ -764,7 +764,7 @@
         <v>80050</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
         <v>-1</v>
@@ -778,7 +778,7 @@
         <v>80060</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4">
         <v>-1</v>
@@ -792,7 +792,7 @@
         <v>80070</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4">
         <v>-1</v>
@@ -806,7 +806,7 @@
         <v>80080</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
         <v>-1</v>
@@ -820,7 +820,7 @@
         <v>80090</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4">
         <v>-1</v>
@@ -834,7 +834,7 @@
         <v>80091</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4">
         <v>-1</v>

--- a/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85435844-AA7C-4F3E-816D-4D0A8C117FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E563F50-3E7B-457C-90D1-A7990ECE5B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13575" yWindow="5445" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="5460" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪阴谋配置" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>找到猫咪圣杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阴谋组编号</t>
   </si>
   <si>
@@ -146,15 +142,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行“猫咪仪式”，探求“圣杯的痕迹”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开“猫咪巡游”，打听“圣杯的传言”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>举办“猫咪集会”，寻觅“圣杯的线索”</t>
+    <t>展开“猫咪巡游”，打听圣杯的传言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回猫咪圣杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行“猫咪仪式”，探求圣杯的痕迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举办“猫咪集会”，寻觅圣杯的线索</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +580,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>80000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <v>450000</v>
@@ -624,7 +624,7 @@
         <v>80001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>450001</v>
@@ -638,7 +638,7 @@
         <v>80002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>450002</v>
@@ -652,7 +652,7 @@
         <v>80003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>450003</v>
@@ -666,7 +666,7 @@
         <v>80010</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>450010</v>
@@ -680,7 +680,7 @@
         <v>80011</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>450011</v>
@@ -708,7 +708,7 @@
         <v>80013</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>450013</v>
@@ -846,6 +846,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/猫咪阴谋配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E563F50-3E7B-457C-90D1-A7990ECE5B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9A529-743C-4A8C-8A5F-529EF8BEBDA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="5460" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13530" yWindow="4965" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#猫咪阴谋配置" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <t>达成条件</t>
   </si>
   <si>
-    <t>阴谋酝酿中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>找寻所有失落的圣器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>举办“猫咪集会”，寻觅圣杯的线索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谋酝酿中…...</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +580,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>80000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>450000</v>
@@ -624,7 +624,7 @@
         <v>80001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>450001</v>
@@ -638,7 +638,7 @@
         <v>80002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>450002</v>
@@ -652,7 +652,7 @@
         <v>80003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>450003</v>
@@ -666,7 +666,7 @@
         <v>80010</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>450010</v>
@@ -680,7 +680,7 @@
         <v>80011</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>450011</v>
@@ -694,7 +694,7 @@
         <v>80012</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>450012</v>
@@ -708,7 +708,7 @@
         <v>80013</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>450013</v>
@@ -722,7 +722,7 @@
         <v>80020</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4">
         <v>-1</v>
@@ -736,7 +736,7 @@
         <v>80030</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>-1</v>
@@ -750,7 +750,7 @@
         <v>80040</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4">
         <v>-1</v>
@@ -764,7 +764,7 @@
         <v>80050</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4">
         <v>-1</v>
@@ -778,7 +778,7 @@
         <v>80060</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4">
         <v>-1</v>
@@ -792,7 +792,7 @@
         <v>80070</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4">
         <v>-1</v>
@@ -806,7 +806,7 @@
         <v>80080</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4">
         <v>-1</v>
@@ -820,7 +820,7 @@
         <v>80090</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4">
         <v>-1</v>
@@ -834,7 +834,7 @@
         <v>80091</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4">
         <v>-1</v>
